--- a/main_script/output/table_7.xlsx
+++ b/main_script/output/table_7.xlsx
@@ -14,27 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
-  <si>
-    <t>500 G00 MHz|</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>Not Valid =|</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>Not Valid **]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+  <si>
+    <t>50O OO0 MHz</t>
+  </si>
+  <si>
+    <t>0 018 dB</t>
+  </si>
+  <si>
+    <t>Not Valid **</t>
+  </si>
+  <si>
+    <t>0 138 d8</t>
+  </si>
+  <si>
+    <t>1.000 GHz</t>
+  </si>
+  <si>
+    <t>-0.360 dB</t>
+  </si>
+  <si>
+    <t>** Not Valid **</t>
   </si>
   <si>
     <t>-0.116 dB</t>
@@ -46,58 +46,55 @@
     <t>-0.426 dB</t>
   </si>
   <si>
-    <t>Nat Valid</t>
-  </si>
-  <si>
-    <t>-0.074 dB]</t>
+    <t>-0.074 dB</t>
   </si>
   <si>
     <t>2.000 GHz</t>
   </si>
   <si>
-    <t>-0,823</t>
-  </si>
-  <si>
-    <t>™ Not Valid</t>
-  </si>
-  <si>
-    <t>0.109</t>
-  </si>
-  <si>
-    <t>2.500</t>
-  </si>
-  <si>
-    <t>0.913 4B]</t>
-  </si>
-  <si>
-    <t>0.125 4B]</t>
-  </si>
-  <si>
-    <t>3.000</t>
-  </si>
-  <si>
-    <t>dB]</t>
-  </si>
-  <si>
-    <t>Not Valid</t>
-  </si>
-  <si>
-    <t>“0.090 dB]</t>
-  </si>
-  <si>
-    <t>3.500 GHz|</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>dB})</t>
-  </si>
-  <si>
-    <t>4.000</t>
-  </si>
-  <si>
-    <t>dB}</t>
+    <t>-0.823 dB</t>
+  </si>
+  <si>
+    <t>**Not Vaiid **</t>
+  </si>
+  <si>
+    <t>-0.109 dB</t>
+  </si>
+  <si>
+    <t>2.500 GHz</t>
+  </si>
+  <si>
+    <t>-0.913 dB</t>
+  </si>
+  <si>
+    <t>-0.125 dB</t>
+  </si>
+  <si>
+    <t>3.000 GHz</t>
+  </si>
+  <si>
+    <t>-0.728 dB</t>
+  </si>
+  <si>
+    <t>-0.090 dB</t>
+  </si>
+  <si>
+    <t>3.500 GHz</t>
+  </si>
+  <si>
+    <t>-0.325 dB</t>
+  </si>
+  <si>
+    <t>-0.155 dB</t>
+  </si>
+  <si>
+    <t>4.000 GHz</t>
+  </si>
+  <si>
+    <t>-0.713 dB</t>
+  </si>
+  <si>
+    <t>-0.174 dB</t>
   </si>
 </sst>
 </file>
@@ -455,8 +452,8 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -495,78 +492,80 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
